--- a/Tableau/COMPLETION.xlsx
+++ b/Tableau/COMPLETION.xlsx
@@ -8,16 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karollvivianalopezvillegas/GitHub/vanguard-ab-test/Tableau/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAA5EE9-3315-424A-9962-9BE20C3CC590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F03185-4373-1D4D-A733-E194B54ACC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="2" xr2:uid="{1E1D7DE5-43F6-0E4C-9A50-357B19FC4FB0}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{1E1D7DE5-43F6-0E4C-9A50-357B19FC4FB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Completion" sheetId="1" r:id="rId1"/>
-    <sheet name="Time" sheetId="2" r:id="rId2"/>
-    <sheet name="Errors" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>Control</t>
   </si>
@@ -56,42 +54,6 @@
   </si>
   <si>
     <t>Value</t>
-  </si>
-  <si>
-    <t>start_to_step_1</t>
-  </si>
-  <si>
-    <t>step_1_to_step_2</t>
-  </si>
-  <si>
-    <t>step_2_to_step_3</t>
-  </si>
-  <si>
-    <t>step_3_to_confirm</t>
-  </si>
-  <si>
-    <t>Time (sec)</t>
-  </si>
-  <si>
-    <t>Time (min)</t>
-  </si>
-  <si>
-    <t>Transition</t>
-  </si>
-  <si>
-    <t>Var</t>
-  </si>
-  <si>
-    <t>backward_steps</t>
-  </si>
-  <si>
-    <t>total_steps</t>
-  </si>
-  <si>
-    <t>error_rate control</t>
-  </si>
-  <si>
-    <t>error_rate test</t>
   </si>
   <si>
     <t>Completion rate_control</t>
@@ -104,10 +66,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -121,12 +80,6 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -149,18 +102,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,13 +442,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6F063E-E3CD-B948-BCBC-0D07274BC607}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScale="157" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -566,10 +511,9 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="3">
-        <f>+ROUND(47.99,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
         <v>48</v>
       </c>
     </row>
@@ -578,272 +522,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="3">
-        <f>ROUND(53.87,1)</f>
+        <v>7</v>
+      </c>
+      <c r="C7" s="2">
         <v>53.9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D299D2FD-6693-714A-B4D6-6F967D30AA20}">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView zoomScale="214" workbookViewId="0">
-      <selection activeCell="D4" sqref="A4:D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="5"/>
-    <col min="3" max="3" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7">
-        <v>64.306905</v>
-      </c>
-      <c r="D2" s="7">
-        <f>+C2/60</f>
-        <v>1.07178175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7">
-        <v>52.481850999999999</v>
-      </c>
-      <c r="D3" s="7">
-        <f t="shared" ref="D3:D9" si="0">+C3/60</f>
-        <v>0.87469751666666662</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>50.576085999999997</v>
-      </c>
-      <c r="D4" s="7">
-        <f t="shared" si="0"/>
-        <v>0.84293476666666656</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7">
-        <v>76.060626999999997</v>
-      </c>
-      <c r="D5" s="7">
-        <f t="shared" si="0"/>
-        <v>1.2676771166666667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7">
-        <v>110.146508</v>
-      </c>
-      <c r="D6" s="7">
-        <f t="shared" si="0"/>
-        <v>1.8357751333333332</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7">
-        <v>107.843462</v>
-      </c>
-      <c r="D7" s="7">
-        <f t="shared" si="0"/>
-        <v>1.7973910333333334</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7">
-        <v>168.50091800000001</v>
-      </c>
-      <c r="D8" s="7">
-        <f t="shared" si="0"/>
-        <v>2.8083486333333334</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7">
-        <v>143.41084699999999</v>
-      </c>
-      <c r="D9" s="7">
-        <f t="shared" si="0"/>
-        <v>2.3901807833333333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C10" s="7">
-        <f>SUM(C2:C9)</f>
-        <v>773.32720400000005</v>
-      </c>
-      <c r="D10" s="7">
-        <f>SUM(D2:D9)</f>
-        <v>12.888786733333333</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03C8887-6F20-CF41-BAC3-D097214B362D}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="229" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2">
-        <v>9504</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>16194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>93502</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5">
-        <v>119375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2">
-        <v>10.16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="8">
-        <v>13.57</v>
       </c>
     </row>
   </sheetData>
